--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2204266689462</v>
+        <v>21.62966433333333</v>
       </c>
       <c r="H2">
-        <v>11.2204266689462</v>
+        <v>64.888993</v>
       </c>
       <c r="I2">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="J2">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N2">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O2">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P2">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q2">
-        <v>6.166015736630616</v>
+        <v>13.38022571480978</v>
       </c>
       <c r="R2">
-        <v>6.166015736630616</v>
+        <v>120.422031433288</v>
       </c>
       <c r="S2">
-        <v>0.0001162775760933816</v>
+        <v>0.00023819978975726</v>
       </c>
       <c r="T2">
-        <v>0.0001162775760933816</v>
+        <v>0.00023819978975726</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2204266689462</v>
+        <v>21.62966433333333</v>
       </c>
       <c r="H3">
-        <v>11.2204266689462</v>
+        <v>64.888993</v>
       </c>
       <c r="I3">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="J3">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N3">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O3">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P3">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q3">
-        <v>25.88469864519195</v>
+        <v>50.58360886254867</v>
       </c>
       <c r="R3">
-        <v>25.88469864519195</v>
+        <v>455.252479762938</v>
       </c>
       <c r="S3">
-        <v>0.0004881288249866276</v>
+        <v>0.0009005083511323906</v>
       </c>
       <c r="T3">
-        <v>0.0004881288249866276</v>
+        <v>0.0009005083511323906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2204266689462</v>
+        <v>21.62966433333333</v>
       </c>
       <c r="H4">
-        <v>11.2204266689462</v>
+        <v>64.888993</v>
       </c>
       <c r="I4">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="J4">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N4">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O4">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P4">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q4">
-        <v>1.495434848051613</v>
+        <v>3.575686329600666</v>
       </c>
       <c r="R4">
-        <v>1.495434848051613</v>
+        <v>32.181176966406</v>
       </c>
       <c r="S4">
-        <v>2.820063177977465E-05</v>
+        <v>6.365570731785641E-05</v>
       </c>
       <c r="T4">
-        <v>2.820063177977465E-05</v>
+        <v>6.365570731785643E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2204266689462</v>
+        <v>21.62966433333333</v>
       </c>
       <c r="H5">
-        <v>11.2204266689462</v>
+        <v>64.888993</v>
       </c>
       <c r="I5">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="J5">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N5">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O5">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P5">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q5">
-        <v>85.08690100758173</v>
+        <v>172.7041817864928</v>
       </c>
       <c r="R5">
-        <v>85.08690100758173</v>
+        <v>1554.337636078435</v>
       </c>
       <c r="S5">
-        <v>0.001604552928349395</v>
+        <v>0.003074544530755477</v>
       </c>
       <c r="T5">
-        <v>0.001604552928349395</v>
+        <v>0.003074544530755477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4939.13178351118</v>
+        <v>4967.017741</v>
       </c>
       <c r="H6">
-        <v>4939.13178351118</v>
+        <v>14901.053223</v>
       </c>
       <c r="I6">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948035</v>
       </c>
       <c r="J6">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948036</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N6">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O6">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P6">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q6">
-        <v>2714.225153906971</v>
+        <v>3072.623665343885</v>
       </c>
       <c r="R6">
-        <v>2714.225153906971</v>
+        <v>27653.61298809497</v>
       </c>
       <c r="S6">
-        <v>0.05118435231896567</v>
+        <v>0.05469999734593417</v>
       </c>
       <c r="T6">
-        <v>0.05118435231896567</v>
+        <v>0.05469999734593418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4939.13178351118</v>
+        <v>4967.017741</v>
       </c>
       <c r="H7">
-        <v>4939.13178351118</v>
+        <v>14901.053223</v>
       </c>
       <c r="I7">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948035</v>
       </c>
       <c r="J7">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948036</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N7">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O7">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P7">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q7">
-        <v>11394.21356755621</v>
+        <v>11615.9769634929</v>
       </c>
       <c r="R7">
-        <v>11394.21356755621</v>
+        <v>104543.7926714361</v>
       </c>
       <c r="S7">
-        <v>0.2148699568272165</v>
+        <v>0.2067919726844847</v>
       </c>
       <c r="T7">
-        <v>0.2148699568272165</v>
+        <v>0.2067919726844848</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4939.13178351118</v>
+        <v>4967.017741</v>
       </c>
       <c r="H8">
-        <v>4939.13178351118</v>
+        <v>14901.053223</v>
       </c>
       <c r="I8">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948035</v>
       </c>
       <c r="J8">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948036</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N8">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O8">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P8">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q8">
-        <v>658.2770875036276</v>
+        <v>821.1175708356739</v>
       </c>
       <c r="R8">
-        <v>658.2770875036276</v>
+        <v>7390.058137521065</v>
       </c>
       <c r="S8">
-        <v>0.01241366668560581</v>
+        <v>0.01461784254674886</v>
       </c>
       <c r="T8">
-        <v>0.01241366668560581</v>
+        <v>0.01461784254674886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4939.13178351118</v>
+        <v>4967.017741</v>
       </c>
       <c r="H9">
-        <v>4939.13178351118</v>
+        <v>14901.053223</v>
       </c>
       <c r="I9">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948035</v>
       </c>
       <c r="J9">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948036</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N9">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O9">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P9">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q9">
-        <v>37454.49522789724</v>
+        <v>39659.6415764257</v>
       </c>
       <c r="R9">
-        <v>37454.49522789724</v>
+        <v>356936.7741878313</v>
       </c>
       <c r="S9">
-        <v>0.7063098936041392</v>
+        <v>0.7060357939176358</v>
       </c>
       <c r="T9">
-        <v>0.7063098936041392</v>
+        <v>0.7060357939176359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.15736650703238</v>
+        <v>2.249417666666667</v>
       </c>
       <c r="H10">
-        <v>2.15736650703238</v>
+        <v>6.748253</v>
       </c>
       <c r="I10">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313067</v>
       </c>
       <c r="J10">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N10">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O10">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P10">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q10">
-        <v>1.185548127938598</v>
+        <v>1.391501765494222</v>
       </c>
       <c r="R10">
-        <v>1.185548127938598</v>
+        <v>12.523515889448</v>
       </c>
       <c r="S10">
-        <v>2.235684574072708E-05</v>
+        <v>2.477203561825653E-05</v>
       </c>
       <c r="T10">
-        <v>2.235684574072708E-05</v>
+        <v>2.477203561825654E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.15736650703238</v>
+        <v>2.249417666666667</v>
       </c>
       <c r="H11">
-        <v>2.15736650703238</v>
+        <v>6.748253</v>
       </c>
       <c r="I11">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313067</v>
       </c>
       <c r="J11">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N11">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O11">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P11">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q11">
-        <v>4.97688577710817</v>
+        <v>5.260537642455333</v>
       </c>
       <c r="R11">
-        <v>4.97688577710817</v>
+        <v>47.344838782098</v>
       </c>
       <c r="S11">
-        <v>9.385318483990621E-05</v>
+        <v>9.365006145270596E-05</v>
       </c>
       <c r="T11">
-        <v>9.385318483990621E-05</v>
+        <v>9.365006145270597E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.15736650703238</v>
+        <v>2.249417666666667</v>
       </c>
       <c r="H12">
-        <v>2.15736650703238</v>
+        <v>6.748253</v>
       </c>
       <c r="I12">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313067</v>
       </c>
       <c r="J12">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N12">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O12">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P12">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q12">
-        <v>0.2875292669185641</v>
+        <v>0.3718602321473333</v>
       </c>
       <c r="R12">
-        <v>0.2875292669185641</v>
+        <v>3.346742089326</v>
       </c>
       <c r="S12">
-        <v>5.422173351679919E-06</v>
+        <v>6.619995133455784E-06</v>
       </c>
       <c r="T12">
-        <v>5.422173351679919E-06</v>
+        <v>6.619995133455786E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.15736650703238</v>
+        <v>2.249417666666667</v>
       </c>
       <c r="H13">
-        <v>2.15736650703238</v>
+        <v>6.748253</v>
       </c>
       <c r="I13">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313067</v>
       </c>
       <c r="J13">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N13">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O13">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P13">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q13">
-        <v>16.35977274634035</v>
+        <v>17.96069655223722</v>
       </c>
       <c r="R13">
-        <v>16.35977274634035</v>
+        <v>161.646268970135</v>
       </c>
       <c r="S13">
-        <v>0.0003085095467859619</v>
+        <v>0.0003197430472268885</v>
       </c>
       <c r="T13">
-        <v>0.0003085095467859619</v>
+        <v>0.0003197430472268885</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>62.9684684686235</v>
+        <v>66.41617433333333</v>
       </c>
       <c r="H14">
-        <v>62.9684684686235</v>
+        <v>199.248523</v>
       </c>
       <c r="I14">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="J14">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N14">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O14">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P14">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q14">
-        <v>34.60336927860572</v>
+        <v>41.08539966219644</v>
       </c>
       <c r="R14">
-        <v>34.60336927860572</v>
+        <v>369.7685969597679</v>
       </c>
       <c r="S14">
-        <v>0.0006525438915890814</v>
+        <v>0.0007314176733802075</v>
       </c>
       <c r="T14">
-        <v>0.0006525438915890814</v>
+        <v>0.0007314176733802075</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>62.9684684686235</v>
+        <v>66.41617433333333</v>
       </c>
       <c r="H15">
-        <v>62.9684684686235</v>
+        <v>199.248523</v>
       </c>
       <c r="I15">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="J15">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N15">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O15">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P15">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q15">
-        <v>145.263623082229</v>
+        <v>155.3223264517686</v>
       </c>
       <c r="R15">
-        <v>145.263623082229</v>
+        <v>1397.900938065918</v>
       </c>
       <c r="S15">
-        <v>0.002739354342902491</v>
+        <v>0.002765106231688542</v>
       </c>
       <c r="T15">
-        <v>0.002739354342902491</v>
+        <v>0.002765106231688542</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>62.9684684686235</v>
+        <v>66.41617433333333</v>
       </c>
       <c r="H16">
-        <v>62.9684684686235</v>
+        <v>199.248523</v>
       </c>
       <c r="I16">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="J16">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N16">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O16">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P16">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q16">
-        <v>8.392304932309903</v>
+        <v>10.97952344374067</v>
       </c>
       <c r="R16">
-        <v>8.392304932309903</v>
+        <v>98.81571099366599</v>
       </c>
       <c r="S16">
-        <v>0.0001582605230097526</v>
+        <v>0.0001954615887413013</v>
       </c>
       <c r="T16">
-        <v>0.0001582605230097526</v>
+        <v>0.0001954615887413013</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>62.9684684686235</v>
+        <v>66.41617433333333</v>
       </c>
       <c r="H17">
-        <v>62.9684684686235</v>
+        <v>199.248523</v>
       </c>
       <c r="I17">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="J17">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N17">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O17">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P17">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q17">
-        <v>477.5033963741409</v>
+        <v>530.3064748883095</v>
       </c>
       <c r="R17">
-        <v>477.5033963741409</v>
+        <v>4772.758273994785</v>
       </c>
       <c r="S17">
-        <v>0.009004670094644051</v>
+        <v>0.009440714492992004</v>
       </c>
       <c r="T17">
-        <v>0.009004670094644051</v>
+        <v>0.009440714492992004</v>
       </c>
     </row>
   </sheetData>
